--- a/CastReporting.Reporting.Core/Templates/Application/Compliance reports/OWASP-2021 Full Detailed Report.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Compliance reports/OWASP-2021 Full Detailed Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ABD\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E58787E-4FC5-4096-9009-4EB99113CD5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68FB4E8-45A4-4BD7-9023-4F9D84625B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="842" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="842" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -224,70 +224,70 @@
     <t>CAST findings details for A10:2021 – Server-Side Request Forgery (SSRF)</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=OWASP-2021,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TEXT;OMG_TECHNICAL_DEBT</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A01-2021,DESC=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A01-2021,COUNT=-1,HEADER=NO</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A02-2021,DESC=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A02-2021,COUNT=-1,HEADER=NO</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A03-2021,DESC=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A03-2021,COUNT=-1,HEADER=NO</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A04-2021,DESC=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A04-2021,COUNT=-1,HEADER=NO</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A05-2021,DESC=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A05-2021,COUNT=-1,HEADER=NO</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A06-2021,DESC=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A06-2021,COUNT=-1,HEADER=NO</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A07-2021,DESC=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A07-2021,COUNT=-1,HEADER=NO</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A08-2021,DESC=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A08-2021,COUNT=-1,HEADER=NO</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A09-2021,DESC=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A09-2021,COUNT=-1,HEADER=NO</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A10-2021,DESC=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A10-2021,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A01-2021,DESC=true,HEADER=NO,EVOLUTION=true</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A02-2021,DESC=true,HEADER=NO,EVOLUTION=true</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A03-2021,DESC=true,HEADER=NO,EVOLUTION=true</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A04-2021,DESC=true,HEADER=NO,EVOLUTION=true</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A05-2021,DESC=true,HEADER=NO,EVOLUTION=true</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A06-2021,DESC=true,HEADER=NO,EVOLUTION=true</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A07-2021,DESC=true,HEADER=NO,EVOLUTION=true</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A08-2021,DESC=true,HEADER=NO,EVOLUTION=true</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A09-2021,DESC=true,HEADER=NO,EVOLUTION=true</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A10-2021,DESC=true,HEADER=NO,EVOLUTION=true</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=OWASP-2021,HEADER=NO,EVOLUTION=true</t>
   </si>
 </sst>
 </file>
@@ -948,26 +948,26 @@
   <dimension ref="B1:O14"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="75.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="75.33203125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.140625" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="36.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.109375" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="36.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
@@ -977,7 +977,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>32</v>
       </c>
@@ -987,7 +987,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
@@ -1016,13 +1016,13 @@
         <v>2</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
         <v>9</v>
       </c>
@@ -1033,13 +1033,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="23"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C8" s="18" t="s">
         <v>13</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>15</v>
       </c>
@@ -1055,12 +1055,12 @@
       <c r="N9" s="17"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B12" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" ht="22.8" x14ac:dyDescent="0.3">
       <c r="B13" s="19" t="s">
         <v>16</v>
       </c>
@@ -1074,9 +1074,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
       <c r="C14" s="23"/>
       <c r="D14" s="23"/>
@@ -1100,21 +1100,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="54.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="54.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
@@ -1137,9 +1137,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1162,24 +1162,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>24</v>
       </c>
@@ -1205,9 +1205,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1224,21 +1224,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="50.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
@@ -1261,9 +1261,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1286,24 +1286,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>24</v>
       </c>
@@ -1329,9 +1329,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1348,21 +1348,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="79.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="51.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="51.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
@@ -1385,9 +1385,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1410,24 +1410,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>24</v>
       </c>
@@ -1453,9 +1453,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1472,21 +1472,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="49.85546875" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="49.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
@@ -1509,9 +1509,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1534,24 +1534,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>24</v>
       </c>
@@ -1577,9 +1577,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1596,21 +1596,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="47.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="47.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
@@ -1633,9 +1633,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1658,24 +1658,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>24</v>
       </c>
@@ -1701,9 +1701,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1717,26 +1717,26 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60" customWidth="1"/>
-    <col min="6" max="6" width="52.140625" customWidth="1"/>
-    <col min="7" max="7" width="57.140625" customWidth="1"/>
+    <col min="6" max="6" width="52.109375" customWidth="1"/>
+    <col min="7" max="7" width="57.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
@@ -1759,9 +1759,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1784,21 +1784,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="77.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="53.140625" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="53.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
@@ -1821,7 +1821,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
         <v>74</v>
       </c>
@@ -1846,24 +1846,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="90.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="90.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>24</v>
       </c>
@@ -1889,9 +1889,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1908,24 +1908,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>24</v>
       </c>
@@ -1951,9 +1951,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1970,21 +1970,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="53.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="53.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
@@ -2007,9 +2007,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -2032,24 +2032,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.140625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>24</v>
       </c>
@@ -2075,9 +2075,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2094,21 +2094,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="54.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="54.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
@@ -2131,9 +2131,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -2156,24 +2156,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>24</v>
       </c>
@@ -2199,9 +2199,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2218,21 +2218,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="53.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="53.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
@@ -2255,9 +2255,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -2280,24 +2280,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>24</v>
       </c>
@@ -2323,9 +2323,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/Application/Compliance reports/OWASP-2021 Full Detailed Report.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Compliance reports/OWASP-2021 Full Detailed Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJG\cast-repos\report-gen\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F68FB4E8-45A4-4BD7-9023-4F9D84625B4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B74DF5-B4F7-4AAA-87F7-22AD46A67D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="842" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="842" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -37,11 +37,11 @@
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">Summary!#REF!</definedName>
-    <definedName name="Application_Size" comment="TEXT;APPLICATION_SIZE_TYPE" localSheetId="0">Summary!$G$3</definedName>
+    <definedName name="Application_Size" comment="TEXT;APPLICATION_SIZE_TYPE" localSheetId="0">Summary!$G$4</definedName>
     <definedName name="EmpVersion" comment="TEXT;EMP_VERSION" localSheetId="0">Summary!$E$1</definedName>
-    <definedName name="TABLE_1" comment="TEXT;APPLICATION_NAME" localSheetId="0">Summary!$D$3:$D$3</definedName>
-    <definedName name="TABLE_3" comment="TEXT;METRIC_TECHNICAL_DEBT" localSheetId="0">Summary!$G$4</definedName>
-    <definedName name="TABLE_4" comment="TEXT;LAST_SNAPSHOT_DATE" localSheetId="0">Summary!$D$4:$D$4</definedName>
+    <definedName name="TABLE_1" comment="TEXT;APPLICATION_NAME" localSheetId="0">Summary!$D$4:$D$4</definedName>
+    <definedName name="TABLE_3" comment="TEXT;METRIC_TECHNICAL_DEBT" localSheetId="0">Summary!$G$5</definedName>
+    <definedName name="TABLE_4" comment="TEXT;LAST_SNAPSHOT_DATE" localSheetId="0">Summary!$D$5:$D$5</definedName>
     <definedName name="TABLE_5" comment="TEXT;TODAY_DATE" localSheetId="0">Summary!$F$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -494,7 +494,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -518,16 +518,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -537,10 +537,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -568,6 +568,18 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -605,52 +617,50 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>692727</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1021774</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>55418</xdr:rowOff>
+      <xdr:rowOff>8659</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>30307</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>245918</xdr:rowOff>
+      <xdr:colOff>907434</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>74250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 7" descr="CAST_white_90">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4D9D802-1574-4B13-8DCE-E27BD6A29610}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="3870613" y="254577"/>
-          <a:ext cx="1601066" cy="190500"/>
+          <a:off x="10087842" y="207818"/>
+          <a:ext cx="959387" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -945,29 +955,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O14"/>
+  <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="75.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="75.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="36.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="36.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
@@ -977,7 +987,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" spans="2:15" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>32</v>
       </c>
@@ -987,100 +997,108 @@
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="2:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="31"/>
+    </row>
+    <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="9" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="22" t="s">
+    <row r="5" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="7" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="23"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D9" s="18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="16"/>
-    </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="19" t="s">
+      <c r="D10" s="23"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="16"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B13" s="19" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="19" t="s">
+    <row r="14" spans="2:15" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C14" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D14" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E14" s="24" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1100,21 +1118,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="54.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="54.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
@@ -1137,7 +1155,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>69</v>
       </c>
@@ -1162,24 +1180,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="40.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="40.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>24</v>
       </c>
@@ -1205,7 +1223,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1224,21 +1242,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="50.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="50.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
@@ -1261,7 +1279,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>70</v>
       </c>
@@ -1286,24 +1304,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="51.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>24</v>
       </c>
@@ -1329,7 +1347,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -1348,21 +1366,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="79.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="79.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="51.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
@@ -1385,7 +1403,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>71</v>
       </c>
@@ -1410,24 +1428,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="68" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>24</v>
       </c>
@@ -1453,7 +1471,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1472,21 +1490,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="49.88671875" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="49.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
@@ -1509,7 +1527,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>72</v>
       </c>
@@ -1534,24 +1552,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>24</v>
       </c>
@@ -1577,7 +1595,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -1596,21 +1614,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="47.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="47.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
@@ -1633,7 +1651,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>73</v>
       </c>
@@ -1658,24 +1676,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="59" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>24</v>
       </c>
@@ -1701,7 +1719,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -1720,23 +1738,23 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60" customWidth="1"/>
-    <col min="6" max="6" width="52.109375" customWidth="1"/>
-    <col min="7" max="7" width="57.109375" customWidth="1"/>
+    <col min="6" max="6" width="52.140625" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
@@ -1759,7 +1777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>65</v>
       </c>
@@ -1784,21 +1802,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="77.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="53.109375" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="53.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
@@ -1821,7 +1839,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>74</v>
       </c>
@@ -1846,24 +1864,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="90.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="90.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>24</v>
       </c>
@@ -1889,7 +1907,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>64</v>
       </c>
@@ -1908,24 +1926,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>24</v>
       </c>
@@ -1951,7 +1969,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -1970,21 +1988,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
@@ -2007,7 +2025,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>66</v>
       </c>
@@ -2032,24 +2050,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>24</v>
       </c>
@@ -2075,7 +2093,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
@@ -2094,21 +2112,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="54.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="54.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
@@ -2131,7 +2149,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>67</v>
       </c>
@@ -2156,24 +2174,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>24</v>
       </c>
@@ -2199,7 +2217,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -2218,21 +2236,21 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="53.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="53.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
@@ -2255,7 +2273,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>68</v>
       </c>
@@ -2280,24 +2298,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="67" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="44.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="44.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>24</v>
       </c>
@@ -2323,7 +2341,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
